--- a/画面遷移図_3SFY.xlsx
+++ b/画面遷移図_3SFY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\6月DOJO研修資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6748A284-9FEB-4E6C-B4E5-3F99DAE630DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278882DB-F8AE-4F20-B1EB-E5B231ABBDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,13 +448,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>717176</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>684119</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -469,8 +469,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="2809315"/>
-          <a:ext cx="1076325" cy="1157567"/>
+          <a:off x="2860301" y="2857499"/>
+          <a:ext cx="1081368" cy="1228725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,14 +1004,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28015</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1026,8 +1026,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3019425" y="3037915"/>
-          <a:ext cx="781050" cy="200585"/>
+          <a:off x="3019425" y="2962275"/>
+          <a:ext cx="781050" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,13 +1073,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>161366</xdr:rowOff>
+      <xdr:rowOff>66116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1094,7 +1094,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3019425" y="3342716"/>
+          <a:off x="3019425" y="3247466"/>
           <a:ext cx="781050" cy="210110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1139,15 +1139,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>151840</xdr:rowOff>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1162,7 +1162,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3028950" y="3676090"/>
+          <a:off x="3048000" y="3523690"/>
           <a:ext cx="676275" cy="229159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3669,15 +3669,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1277470</xdr:colOff>
+      <xdr:colOff>1410820</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:rowOff>166407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152972</xdr:colOff>
+      <xdr:colOff>286322</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>132152</xdr:rowOff>
+      <xdr:rowOff>141677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3692,8 +3692,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4527176" y="5804647"/>
-          <a:ext cx="309855" cy="143358"/>
+          <a:off x="4668370" y="5919507"/>
+          <a:ext cx="304252" cy="146720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5594,7 +5594,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5602,8 +5602,16 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>旧パスワード</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -9552,6 +9560,277 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>974351</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>379472</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="正方形/長方形 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6708181-DAE6-4625-B3F9-F7982A0255AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3117476" y="3848099"/>
+          <a:ext cx="519546" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77322</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="直線矢印コネクタ 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170F0F98-41E8-4B6A-BC65-AB31945F7BA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2149695" y="3600450"/>
+          <a:ext cx="650655" cy="1122"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>620245</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1424987</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>51613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E649F7F4-7405-60A2-FB1D-9720137F194D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3877795" y="5897655"/>
+          <a:ext cx="804742" cy="249958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>524538</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>163860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>643480</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>70918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63334041-3945-418E-129B-D1072E18381E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6582438" y="8660160"/>
+          <a:ext cx="804742" cy="249958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="直線矢印コネクタ 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9089C8E0-062E-4891-9AB2-2A6281FDC214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="2095500"/>
+          <a:ext cx="0" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10228,7 +10507,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K45" sqref="K42:K45"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
